--- a/biology/Botanique/Paphinia_rugosa_var._sanderiana/Paphinia_rugosa_var._sanderiana.xlsx
+++ b/biology/Botanique/Paphinia_rugosa_var._sanderiana/Paphinia_rugosa_var._sanderiana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paphinia rugosa var. sanderiana Rchb.f., est une variété de plantes à fleurs de la famille des orchidée et de la sous-tribu des Stanhopeinae.
 Cette variété a été découverte en Colombie par Joseph Henry Chesterton en 1879, qui a souhaité que la plante soit dédiée à Frederick Sander.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La fleur est jaune clair avec quelques marques chocolat. Le label est blanc, avec des tâches pourpres.
 </t>
@@ -543,7 +557,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Nom donné en l’honneur du fameux horticulteur britannique Henry Frederick Conrad Sander (1847-1920), « The Orchid King » qui publia la collection Reichenbachia de 1888 à 1894.
 </t>
@@ -574,7 +590,9 @@
           <t>Diagnose</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Sepala et tepala flaveola maculis paucissimis brunneis. Labellum album maculis purpureis.
 Rchb. f.. Gard. Chron. 2de ser. 12, 520 (1879). 
@@ -606,7 +624,9 @@
           <t>Répartition et biotope</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Colombie
 </t>
